--- a/manual and automation amazon testing.xlsx
+++ b/manual and automation amazon testing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Scenario  </t>
-  </si>
-  <si>
     <t>Microsoft edge, opera mini etc.</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>not showing</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
   </si>
 </sst>
 </file>
@@ -312,12 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -325,6 +319,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,353 +608,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="68.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="68.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="6" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E21" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G28" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="6" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E39" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="6" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G47" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G47" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G48" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="51" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="4" t="s">
         <v>36</v>
       </c>
     </row>
